--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3644</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ravindrasinh Anirudhsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2940</t>
+          <t>2940</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3040</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>28/10/2009</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3042</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>31/10/2009</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3045</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3046</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3050</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3052</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3062</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3063</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1119,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>21/12/2009</t>
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3064</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1166,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>24/12/2009</t>
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1213,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3066</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1212,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1312,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>07/01/2010</t>
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>10/01/2010</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1406,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>11/01/2010</t>
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3073</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1557,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>24/02/2010</t>
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3092</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1708,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>30/05/2010</t>
@@ -1660,7 +1715,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1712,7 +1767,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1764,7 +1819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1859,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>16/06/2010</t>
@@ -1812,7 +1866,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1916,7 +1970,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3132</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2022,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3130</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2020,7 +2074,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2060,7 +2114,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -2068,7 +2121,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2120,7 +2173,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2172,7 +2225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2212,7 +2265,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>04/12/2010</t>
@@ -2220,7 +2272,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2272,7 +2324,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2324,7 +2376,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2376,7 +2428,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2428,7 +2480,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2468,7 +2520,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>17/10/2011</t>
@@ -2476,7 +2527,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2528,7 +2579,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2568,7 +2619,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>23/10/2011</t>
@@ -2576,7 +2626,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2628,7 +2678,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2680,7 +2730,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2732,7 +2782,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2784,7 +2834,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2836,7 +2886,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2876,7 +2926,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>11/12/2011</t>
@@ -2884,7 +2933,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2936,7 +2985,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2988,7 +3037,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3040,7 +3089,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3092,7 +3141,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3144,7 +3193,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3196,7 +3245,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3248,7 +3297,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3288,7 +3337,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>28/02/2012</t>
@@ -3296,7 +3344,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3336,7 +3384,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>13/03/2012</t>
@@ -3344,7 +3391,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3396,7 +3443,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3448,7 +3495,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3500,7 +3547,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3552,7 +3599,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3604,7 +3651,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3644,7 +3691,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>19/01/2013</t>
@@ -3652,7 +3698,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3704,7 +3750,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3756,7 +3802,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3808,7 +3854,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3848,7 +3894,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>11/06/2013</t>
@@ -3856,7 +3901,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3896,7 +3941,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>15/06/2013</t>
@@ -3904,7 +3948,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3944,7 +3988,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>20/06/2013</t>
@@ -3952,7 +3995,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4004,7 +4047,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4056,7 +4099,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4108,7 +4151,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4160,7 +4203,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4200,7 +4243,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -4208,7 +4250,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4260,7 +4302,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4300,7 +4342,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>24/07/2013</t>
@@ -4308,7 +4349,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4360,7 +4401,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4400,7 +4441,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -4408,7 +4448,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4448,7 +4488,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>01/08/2013</t>
@@ -4456,7 +4495,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4508,7 +4547,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4560,7 +4599,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4600,7 +4639,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>16/10/2013</t>
@@ -4608,7 +4646,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4660,7 +4698,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4700,7 +4738,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>23/10/2013</t>
@@ -4708,7 +4745,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4748,7 +4785,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>30/10/2013</t>
@@ -4756,7 +4792,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4808,7 +4844,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4848,7 +4884,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>21/11/2013</t>
@@ -4856,7 +4891,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4908,7 +4943,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4960,7 +4995,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5012,7 +5047,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5064,7 +5099,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5104,7 +5139,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -5112,7 +5146,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5164,7 +5198,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5216,7 +5250,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5268,7 +5302,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5320,7 +5354,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5372,7 +5406,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5412,7 +5446,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>26/02/2014</t>
@@ -5420,7 +5453,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5472,7 +5505,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5524,7 +5557,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5564,7 +5597,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -5572,7 +5604,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5624,7 +5656,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5676,7 +5708,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5716,7 +5748,6 @@
           <t>104</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>02/09/2014</t>
@@ -5724,7 +5755,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5776,7 +5807,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5828,7 +5859,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5880,7 +5911,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5932,7 +5963,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5984,7 +6015,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6024,7 +6055,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -6032,7 +6062,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6084,7 +6114,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6136,7 +6166,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6188,7 +6218,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6228,7 +6258,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>28/02/2015</t>
@@ -6236,7 +6265,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6288,7 +6317,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6328,7 +6357,6 @@
           <t>116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>10/03/2015</t>
@@ -6336,7 +6364,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6376,7 +6404,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -6384,7 +6411,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6436,7 +6463,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6488,7 +6515,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6540,7 +6567,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6592,7 +6619,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6644,7 +6671,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6696,7 +6723,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6748,7 +6775,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6800,7 +6827,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6840,7 +6867,6 @@
           <t>126</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>23/01/2016</t>
@@ -6848,7 +6874,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6900,7 +6926,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6952,7 +6978,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7004,7 +7030,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7044,7 +7070,6 @@
           <t>130</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>04/06/2017</t>
@@ -7052,7 +7077,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7104,7 +7129,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7144,7 +7169,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -7152,7 +7176,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7192,7 +7216,6 @@
           <t>133</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -7200,7 +7223,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7252,7 +7275,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7304,7 +7327,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7344,7 +7367,6 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -7352,7 +7374,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7392,7 +7414,6 @@
           <t>137</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -7400,7 +7421,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7440,7 +7461,6 @@
           <t>138</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -7448,7 +7468,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7500,7 +7520,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7552,7 +7572,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7592,7 +7612,6 @@
           <t>141</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -7600,7 +7619,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7652,7 +7671,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7704,7 +7723,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7744,7 +7763,6 @@
           <t>144</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
           <t>01/11/2018</t>
@@ -7752,7 +7770,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7804,7 +7822,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7844,7 +7862,6 @@
           <t>146</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>15/01/2019</t>
@@ -7852,7 +7869,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7892,7 +7909,6 @@
           <t>147</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
           <t>18/01/2019</t>
@@ -7900,7 +7916,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7940,7 +7956,6 @@
           <t>148</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -7948,7 +7963,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8000,7 +8015,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8052,7 +8067,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8104,7 +8119,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8144,7 +8159,6 @@
           <t>152</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -8152,7 +8166,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8204,7 +8218,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8244,7 +8258,6 @@
           <t>154</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -8252,7 +8265,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8304,7 +8317,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8344,7 +8357,6 @@
           <t>156</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -8352,7 +8364,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8404,7 +8416,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8456,7 +8468,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8508,7 +8520,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8560,7 +8572,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8612,7 +8624,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8652,7 +8664,6 @@
           <t>162</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
           <t>19/01/2020</t>
@@ -8660,7 +8671,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8700,7 +8711,6 @@
           <t>163</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -8708,7 +8718,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8760,7 +8770,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8812,7 +8822,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8864,7 +8874,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8916,7 +8926,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8968,7 +8978,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9008,7 +9018,6 @@
           <t>169</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -9016,7 +9025,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9068,7 +9077,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9120,7 +9129,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9172,7 +9181,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9224,7 +9233,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9276,7 +9285,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9315,7 +9324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9337,7 +9346,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -9374,7 +9383,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2940</t>
+          <t>2940</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9411,7 +9420,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9448,7 +9457,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9485,7 +9494,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3040</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9522,7 +9531,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3042</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9559,7 +9568,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3045</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9596,7 +9605,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3046</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9633,7 +9642,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3050</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9670,7 +9679,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3052</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9707,7 +9716,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3062</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9744,7 +9753,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3063</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9781,7 +9790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3064</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9818,7 +9827,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9855,7 +9864,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9892,7 +9901,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9929,7 +9938,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9966,7 +9975,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10003,7 +10012,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3073</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10040,7 +10049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10077,7 +10086,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3092</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10114,7 +10123,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -10151,7 +10160,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -10188,7 +10197,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -10225,7 +10234,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -10262,7 +10271,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -10299,7 +10308,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -10336,7 +10345,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3126</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -10373,7 +10382,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3132</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -10410,7 +10419,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3130</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -10447,7 +10456,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10484,7 +10493,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -10521,7 +10530,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -10558,7 +10567,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3208</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -10595,7 +10604,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -10632,7 +10641,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -10669,7 +10678,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -10706,7 +10715,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -10743,7 +10752,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -10780,7 +10789,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10817,7 +10826,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10854,7 +10863,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10891,7 +10900,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10928,7 +10937,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10965,7 +10974,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -11002,7 +11011,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -11039,7 +11048,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -11076,7 +11085,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -11113,7 +11122,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -11150,7 +11159,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11187,7 +11196,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -11224,7 +11233,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11261,7 +11270,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -11298,7 +11307,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11335,7 +11344,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11372,7 +11381,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11409,7 +11418,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11446,7 +11455,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11483,7 +11492,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11520,7 +11529,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11557,7 +11566,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11594,7 +11603,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11631,7 +11640,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11668,7 +11677,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11705,7 +11714,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11742,7 +11751,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11779,7 +11788,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -11816,7 +11825,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11853,7 +11862,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11890,7 +11899,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -11927,7 +11936,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -11964,7 +11973,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -12001,7 +12010,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -12038,7 +12047,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -12075,7 +12084,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -12112,7 +12121,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -12149,7 +12158,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -12186,7 +12195,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -12223,7 +12232,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -12260,7 +12269,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -12297,7 +12306,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -12334,7 +12343,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -12371,7 +12380,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -12408,7 +12417,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -12445,7 +12454,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -12482,7 +12491,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -12519,7 +12528,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -12556,7 +12565,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -12593,7 +12602,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -12630,7 +12639,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -12667,7 +12676,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12704,7 +12713,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -12741,7 +12750,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -12778,7 +12787,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12815,7 +12824,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12852,7 +12861,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12889,7 +12898,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12926,7 +12935,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12963,7 +12972,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -13000,7 +13009,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -13037,7 +13046,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13074,7 +13083,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -13111,7 +13120,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13148,7 +13157,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13185,7 +13194,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -13222,7 +13231,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -13259,7 +13268,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -13296,7 +13305,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -13333,7 +13342,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -13370,7 +13379,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -13407,7 +13416,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13444,7 +13453,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13481,7 +13490,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13518,7 +13527,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13555,7 +13564,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13592,7 +13601,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13629,7 +13638,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13666,7 +13675,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13703,7 +13712,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13740,7 +13749,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -13777,7 +13786,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13814,7 +13823,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13851,7 +13860,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13888,7 +13897,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13925,7 +13934,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13962,7 +13971,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13999,7 +14008,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14036,7 +14045,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14073,7 +14082,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14110,7 +14119,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -14147,7 +14156,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -14184,7 +14193,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14221,7 +14230,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14258,7 +14267,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14295,7 +14304,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14332,7 +14341,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14369,7 +14378,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14406,7 +14415,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14443,7 +14452,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14480,7 +14489,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14517,7 +14526,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14554,7 +14563,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -14591,7 +14600,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -14628,7 +14637,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -14665,7 +14674,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -14702,7 +14711,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -14739,7 +14748,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -14776,7 +14785,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -14813,7 +14822,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -14850,7 +14859,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -14887,7 +14896,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -14924,7 +14933,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -14961,7 +14970,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -14998,7 +15007,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -15035,7 +15044,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -15072,7 +15081,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -15109,7 +15118,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -15146,7 +15155,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -15183,7 +15192,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -15220,7 +15229,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -15257,7 +15266,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -15294,7 +15303,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -15331,7 +15340,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -15368,7 +15377,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -15405,7 +15414,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -15442,7 +15451,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -15479,7 +15488,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -15516,7 +15525,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -15553,7 +15562,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -15579,6 +15588,545 @@
       <c r="G169" t="inlineStr">
         <is>
           <t>0/34</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12.34%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.80%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.85%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19.86%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.56%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.68%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15678,425 +15679,711 @@
           <t>4362</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12.34%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.80%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.85%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19.86%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.56%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.68%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12.34%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.80%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.88%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.70%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.85%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>19.86%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.68%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.56%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13.68%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -16106,29 +16393,12 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.26%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1226,7 +1225,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -5152,7 +5151,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -8271,7 +8270,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -15679,6 +15678,10 @@
           <t>4362</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15691,6 +15694,10 @@
           <t>4385</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15716,6 +15723,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15821,6 +15829,9 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15833,6 +15844,10 @@
           <t>4402</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15845,6 +15860,10 @@
           <t>4406</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15887,6 +15906,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15899,6 +15922,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15944,6 +15971,9 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16099,306 +16129,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3644.xlsx
@@ -15602,7 +15602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15645,27 +15645,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15675,12 +15661,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
@@ -15691,13 +15687,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15707,22 +15717,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
@@ -15733,27 +15733,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12.34%</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15763,27 +15751,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.80%</t>
-        </is>
-      </c>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15793,7 +15767,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -15811,7 +15785,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>3.10%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -15823,12 +15797,10 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -15841,7 +15813,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -15857,7 +15829,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>3062</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -15873,7 +15845,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -15881,7 +15853,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -15891,7 +15863,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.70%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -15903,26 +15875,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>3064</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -15935,27 +15911,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.85%</t>
-        </is>
-      </c>
+          <t>3066</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15965,15 +15927,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.98%</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -15983,27 +15957,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>19.86%</t>
-        </is>
-      </c>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16013,27 +15973,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.68%</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -16043,37 +15991,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.56%</t>
-        </is>
-      </c>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -16081,7 +16015,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -16091,7 +16025,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>15.51%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -16103,7 +16037,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -16121,10 +16055,3566 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>7.38%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3092</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13.09%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3111</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.29%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9.33%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.73%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3170</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3327</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3331</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>9.00%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17.84%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3355</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3.33%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3357</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4.51%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>12.58%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10.11%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>4.85%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3387</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1.38%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7.88%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>16.17%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.40%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8.14%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17.26%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14.20%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6.55%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.20%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2.46%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3537</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.74%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3581</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>17.81%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.02%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.30%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2.31%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2.96%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>34.39%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>16.75%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2.28%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>8</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>7.03%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>6.87%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>14.04%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3810</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>8</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>8</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>6.18%</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>7</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>7</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>10.31%</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>7</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>4.05%</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>7</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>7</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>7</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>8</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>8</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>8</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>8.54%</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>7</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>8</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>7</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>7</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>12.34%</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>9.80%</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>7</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>5.88%</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>7</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>7</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>7</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>21.85%</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>7</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>7</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>19.86%</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>7</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>7</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>23.56%</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>7</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>13.68%</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>8</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
           <t>7.26%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
